--- a/default_sum_koef.xlsx
+++ b/default_sum_koef.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C25AF78-DEC5-EA47-8259-B43B812DCAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A545A-BDCC-804F-90B8-B400399D5E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="7080" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total sum" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Ca44</t>
   </si>
@@ -46,22 +46,25 @@
     <t>Nb93</t>
   </si>
   <si>
-    <t>Fe57</t>
-  </si>
-  <si>
     <t>Si28</t>
   </si>
   <si>
     <t>K39</t>
   </si>
   <si>
-    <t>Cu65</t>
-  </si>
-  <si>
     <t>Sb121</t>
   </si>
   <si>
     <t>Pb208</t>
+  </si>
+  <si>
+    <t>Cu63</t>
+  </si>
+  <si>
+    <t>Fe56</t>
+  </si>
+  <si>
+    <t>Sn118</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED263DA-3ED2-499A-8427-FAFD0CB42F7F}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -457,7 +460,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>69.942999999999998</v>
@@ -465,7 +468,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>46.743000000000002</v>
@@ -473,7 +476,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>83.015000000000001</v>
@@ -481,7 +484,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>79.887</v>
@@ -489,7 +492,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>83.534999999999997</v>
@@ -497,10 +500,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>92.831999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>78.77</v>
       </c>
     </row>
   </sheetData>
